--- a/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
+++ b/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salman\Desktop\DjangoLearning\projects\DataIngestion\filemanagement\fileingest\code\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A358397-49A6-4A75-AE21-004B37DEA022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F96F09-947B-4F36-9286-9D2ECA9110E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Resol" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$A$4:$C$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>col7</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Rsln file</t>
   </si>
 </sst>
 </file>
@@ -885,10 +891,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,52 +903,60 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A4:C7" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="100"/>

--- a/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
+++ b/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salman\Desktop\DjangoLearning\projects\DataIngestion\filemanagement\fileingest\code\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F96F09-947B-4F36-9286-9D2ECA9110E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D6A5E-DF54-4086-9705-07EA32CD87DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$A$4:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$A$51:$C$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -891,10 +891,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,52 +911,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="51" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="52" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C52" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="53" spans="1:3" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C53" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="54" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C54" s="1">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C7" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A51:C54" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="100"/>

--- a/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
+++ b/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salman\Desktop\DjangoLearning\projects\DataIngestion\filemanagement\fileingest\code\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D6A5E-DF54-4086-9705-07EA32CD87DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291D30F-4216-4FA5-ADEC-BE5832119C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$A$51:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$D$1:$F$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>col7</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>Maximo</t>
-  </si>
-  <si>
-    <t>Rsln file</t>
   </si>
 </sst>
 </file>
@@ -890,80 +884,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:C54"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="2" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="4" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="C52" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="F4" s="1">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A51:C54" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="100"/>
-        <filter val="300"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:F4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
+++ b/fileingest/code/Media/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salman\Desktop\DjangoLearning\projects\DataIngestion\filemanagement\fileingest\code\Media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\filemanagement\fileingest\code\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291D30F-4216-4FA5-ADEC-BE5832119C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097306C-3957-43C6-B9C9-2EFC23B19E21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resol" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$D$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$D$4:$F$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -884,11 +883,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A4:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -896,64 +893,52 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="4" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="1">
+    <row r="5" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="1">
+    <row r="6" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F6" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="1">
+    <row r="7" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="1">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:F4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <autoFilter ref="D4:F7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>